--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\ObjectClass-Property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MIXITE\Projects\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\ObjectClass-Property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>ObjectClass Label</t>
+  </si>
+  <si>
+    <t>def/object-class/well-test-observation</t>
   </si>
 </sst>
 </file>
@@ -575,21 +578,6 @@
           </cell>
           <cell r="B53" t="str">
             <v>Well Test Observation</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2683,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2845,6 +2833,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
+        <f>LOOKUP(B10,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Test Observation</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>LOOKUP(D10,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
+        <f>LOOKUP(B11,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Test Observation</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>LOOKUP(D11,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <f>LOOKUP(B12,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Test Observation</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>LOOKUP(D12,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f>LOOKUP(B13,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Test Observation</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>LOOKUP(D13,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MIXITE\Projects\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\ObjectClass-Property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\ObjectClass-Property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>def/object-class/well-test-observation</t>
+  </si>
+  <si>
+    <t>def/object-class/well-log-observation</t>
   </si>
 </sst>
 </file>
@@ -2671,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2897,6 +2900,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f>LOOKUP(B14,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Log Observation</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>LOOKUP(D14,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f>LOOKUP(B15,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Log Observation</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>LOOKUP(D15,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f>LOOKUP(B16,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Log Observation</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>LOOKUP(D16,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
+        <f>LOOKUP(B17,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Log Observation</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>LOOKUP(D17,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>def/object-class/well-log-observation</t>
+  </si>
+  <si>
+    <t>def/object-class/well-header-feature</t>
   </si>
 </sst>
 </file>
@@ -2674,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,6 +2967,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f>LOOKUP(B18,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Header Feature</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>LOOKUP(D18,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f>LOOKUP(B19,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Header Feature</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>LOOKUP(D19,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f>LOOKUP(B20,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Header Feature</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>LOOKUP(D20,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f>LOOKUP(B21,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Header Feature</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>LOOKUP(D21,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>def/object-class/well-header-feature</t>
+  </si>
+  <si>
+    <t>def/object-class/well-fluid-production-observation</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -2677,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3031,6 +3039,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f>LOOKUP(B22,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Fluid Production Observation</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>LOOKUP(D22,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f>LOOKUP(B23,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Fluid Production Observation</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>LOOKUP(D23,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f>LOOKUP(B24,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Fluid Production Observation</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>LOOKUP(D24,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f>LOOKUP(B25,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Well Fluid Production Observation</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>LOOKUP(D25,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>def/object-class/well-fluid-production-observation</t>
+  </si>
+  <si>
+    <t>def/object-class/volcanic-vent-feature</t>
   </si>
 </sst>
 </file>
@@ -2685,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3103,6 +3106,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f>LOOKUP(B26,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Volcanic Vent Feature</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>LOOKUP(D26,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f>LOOKUP(B27,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Volcanic Vent Feature</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>LOOKUP(D27,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f>LOOKUP(B28,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Volcanic Vent Feature</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>LOOKUP(D28,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
+        <f>LOOKUP(B29,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Volcanic Vent Feature</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>LOOKUP(D29,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Links/ObjectClass-Property/ObjectClass-Property.xlsx
+++ b/Links/ObjectClass-Property/ObjectClass-Property.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>def/property/feature-identifier</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>def/object-class/volcanic-vent-feature</t>
+  </si>
+  <si>
+    <t>def/object-class/thermal-spring</t>
   </si>
 </sst>
 </file>
@@ -2688,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3170,6 +3173,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
+        <f>LOOKUP(B30,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Thermal Spring</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>LOOKUP(D30,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Identifier</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="str">
+        <f>LOOKUP(B31,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Thermal Spring</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>LOOKUP(D31,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Name</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="str">
+        <f>LOOKUP(B32,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Thermal Spring</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>LOOKUP(D32,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Feature Type</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="str">
+        <f>LOOKUP(B33,[1]ObjectClass!$A:$A,[1]ObjectClass!$B:$B)</f>
+        <v>Thermal Spring</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>LOOKUP(D33,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Location</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
